--- a/biology/Botanique/Cymbalaire_des_murs/Cymbalaire_des_murs.xlsx
+++ b/biology/Botanique/Cymbalaire_des_murs/Cymbalaire_des_murs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cymbalaria muralis, Linaria cymbalaria · Linaire cymbalaire, Linaire des murs, Ruine de Rome, Cymbalaire
 La Cymbalaire des murs (Cymbalaria muralis, anciennement Linaria cymbalaria), est une espèce de plante herbacée vivace, originaire du sud de l'Europe et d'Asie occidentale.
@@ -514,14 +526,13 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nom scientifique valide : Cymbalaria muralis G.Gaertn., B.Mey. &amp; Scherb., 1800 ;
-Noms vulgaires (vulgarisation scientifique) recommandés ou typiques en français : Cymbalaire des murs[1],[2],[3],[4],[5], Linaire cymbalaire[5],[2], Linaire des murs[5] ;
-Autres noms vulgaires ou noms vernaculaires (langage courant) pouvant désigner éventuellement d'autres espèces : Cymbalaire[1],[5], Ruine de Rome[1],[4] ou Ruine-de-Rome[5]. À La Réunion : Cymbalaire des murailles[1].
-Phytonymie
-Le nom Cymbalaria dérive du latin cymba, « barque, nacelle », du fait de la forme des feuilles légèrement concave en forme de cymbale (plus caractéristique, d'ailleurs, chez l'ombilic que chez la cymbalaire). L'épithète spécifique muralis fait référence à la paroi des vieux murs propice à l'accueil de cette espèce rupicole et explique ses noms vernaculaires (Lierre fleuri, Lierre des murs, Ruine de Rome)[6].
-</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nom scientifique valide : Cymbalaria muralis G.Gaertn., B.Mey. &amp; Scherb., 1800 ;
+Noms vulgaires (vulgarisation scientifique) recommandés ou typiques en français : Cymbalaire des murs Linaire cymbalaire Linaire des murs ;
+Autres noms vulgaires ou noms vernaculaires (langage courant) pouvant désigner éventuellement d'autres espèces : Cymbalaire Ruine de Rome, ou Ruine-de-Rome. À La Réunion : Cymbalaire des murailles.</t>
         </is>
       </c>
     </row>
@@ -546,13 +557,55 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénominations</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Phytonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Cymbalaria dérive du latin cymba, « barque, nacelle », du fait de la forme des feuilles légèrement concave en forme de cymbale (plus caractéristique, d'ailleurs, chez l'ombilic que chez la cymbalaire). L'épithète spécifique muralis fait référence à la paroi des vieux murs propice à l'accueil de cette espèce rupicole et explique ses noms vernaculaires (Lierre fleuri, Lierre des murs, Ruine de Rome).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cymbalaire_des_murs</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cymbalaire_des_murs</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Appareil végétatif
-Plante herbacée, poussant en touffes, à tiges glabres généralement pourprées, filiformes, rampantes ou retombantes. Les jeunes pédoncules et pétioles sont glanduleux.
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante herbacée, poussant en touffes, à tiges glabres généralement pourprées, filiformes, rampantes ou retombantes. Les jeunes pédoncules et pétioles sont glanduleux.
 Feuille alterne, longuement pétiolée, lustrée et charnue, à 5 lobes ou plus, à apex mucronulé et à base lobée. La face inférieure et la marge du limbe sont pourprées.
 	Appareil végétatif
 			Aspect général de la plante
@@ -560,8 +613,43 @@
 			Colonisation d'un espace
 			Plantule
 			Feuille
-Appareil reproducteur
-La floraison va de mars-avril à septembre (floraison plus précoce en région méditerranéenne).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cymbalaire_des_murs</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cymbalaire_des_murs</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison va de mars-avril à septembre (floraison plus précoce en région méditerranéenne).
 Les fleurs blanc-rosé ou rose-violacé, dont la corolle mesure 1 cm de diamètre environ, sont zygomorphes, personées, solitaires, fixées sur un calice gamosépale quinquédenté, et portées par un long pédoncule axillaires. La lèvre supérieure est bilobée et marquée par deux ou trois traits verticaux foncés sous chaque lobe ; la lèvre inférieure, trilobée, possède un palais à deux bosselures blanches maculées de jaune en leur sommet. La corolle se prolonge, dans sa partie inférieure, par un court éperon nectarifère pointu .
 La plante est entomogame et autogame. Les fleurs sont périgyne et possèdent 4 étamines (2 courtes et 2 plus longues) entourant la base de l'ovaire d'où part un style aussi long que les filets des 2 plus longues étamines, le stigmate se retrouve donc en contact avec les anthères.
 Les fruits sont des capsules glabres à valves déhiscentes libérant, à maturité, des graines noir-grisâtre inférieures à 0,5 millimètre de diamètre qui présentent de profondes aspérités favorisant l’adhérence aux surfaces. À la fructification, le pédoncule s’incline en direction du support permettant à capsule de libérer les graines dans les interstices du substrat, assurant ainsi l'autochorie.
@@ -575,69 +663,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Cymbalaire_des_murs</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cymbalaire_des_murs</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Écologie et habitat</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante vivace originaire du sud de l'Europe et d'Asie occidentale, naturalisée dans presque toute l'Europe. Son appellation commune, ruine de Rome, témoigne de son origine méditerranéenne. Son expansion dans de nombreuses régions françaises est liée à ses propriétés médicinales[7].
-Lythophyte, thermophile et calciphile, elle est fréquente dans les anfractuosités des murs de pierre en mi-ombrage ou ombragés et souvent accompagnée de Capillaire des murailles (Asplenium trichomanes) ou de Rue des murailles (Asplenium ruta-muralis). "Elle affectionne aujourd’hui les villes, où les températures sont plus clémentes"[7]. Elle est ainsi devenue une espèce adventice envahissante, constituant la végétation banale de l'alliance du Cymbalario muralis – Asplenion rutae-murariae (classe des Parietarietea judaicae)[8].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cymbalaire_des_murs</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cymbalaire_des_murs</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Propriétés médicinales</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle permettrait de soigner la gale et le scorbut[7].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -659,10 +684,79 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante vivace originaire du sud de l'Europe et d'Asie occidentale, naturalisée dans presque toute l'Europe. Son appellation commune, ruine de Rome, témoigne de son origine méditerranéenne. Son expansion dans de nombreuses régions françaises est liée à ses propriétés médicinales.
+Lythophyte, thermophile et calciphile, elle est fréquente dans les anfractuosités des murs de pierre en mi-ombrage ou ombragés et souvent accompagnée de Capillaire des murailles (Asplenium trichomanes) ou de Rue des murailles (Asplenium ruta-muralis). "Elle affectionne aujourd’hui les villes, où les températures sont plus clémentes". Elle est ainsi devenue une espèce adventice envahissante, constituant la végétation banale de l'alliance du Cymbalario muralis – Asplenion rutae-murariae (classe des Parietarietea judaicae).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cymbalaire_des_murs</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cymbalaire_des_murs</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Propriétés médicinales</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle permettrait de soigner la gale et le scorbut.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cymbalaire_des_murs</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cymbalaire_des_murs</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Cymbalaria muralis subsp. muralis
 Cymbalaria muralis subsp. pubescens (C.Presl) D.A.Webb
@@ -670,31 +764,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Cymbalaire_des_murs</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Cymbalaire_des_murs</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Aspects culturels</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette petite plante, capable de germer jusqu'en ville dans la moindre fissure de maçonnerie, a inspiré le titre et un chapitre du roman Ruines-de-Rome, de Pierre Senges, paru en 2002.
 </t>
